--- a/02_MasterWifoMannheim/03_Courses/Course58.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course58.xlsx
@@ -1,37 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B3611594BB0724699F8F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B13410F-A8B8-4C77-8E2C-0BE9886F187A}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>ACC 676 Case Studies on Consulting in Financial Services Firms</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>In this course, offered jointly with KPMG, current topics from the frontier between financial accounting, consulting, risk management, regulatory law and capital markets with a focus on the financial services sector will be covered. The participants will form groups of three to four students and discuss problem areas of high practical relevance using both practice-oriented and academic approaches. Results will be summarized in a consulting report and presented in a final results presentation.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>Participants are able to discuss and solve complex problems of high practical relevance at the interface of capital markets, financial accounting and auditing. tension between academic case solutions and those related to practice and are able to develop solutions according to both aspects. The consulting report corresponds to standards required by the business practice and is academically founded.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Accounting and Taxation (AAT)</t>
+  </si>
+  <si>
+    <t>Not Taken</t>
+  </si>
+  <si>
+    <t>ACC 627</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on registration:Website of the Chair</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture 2 6</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written consulting report (50%) and in-class presentation (50%)</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Gero Wiechens</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+  </si>
+  <si>
+    <t>ACC 5|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +157,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,229 +481,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACC 676 Case Studies on Consulting in Financial Services Firms</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>In this course, offered jointly with KPMG, current topics from the frontier between financial accounting, consulting, risk management, regulatory law and capital markets with a focus on the financial services sector will be covered. The participants will form groups of three to four students and discuss problem areas of high practical relevance using both practice-oriented and academic approaches. Results will be summarized in a consulting report and presented in a final results presentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Participants are able to discuss and solve complex problems of high practical relevance at the interface of capital markets, financial accounting and auditing. tension between academic case solutions and those related to practice and are able to develop solutions according to both aspects. The consulting report corresponds to standards required by the business practice and is academically founded.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Accounting and Taxation (AAT)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Not Taken</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ACC 627</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ACC 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Further Information on registration:Website of the Chair</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture 2 6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Written consulting report (50%) and in-class presentation (50%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gero Wiechens</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
